--- a/data/trans_media/IQ18C_M-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ18C_M-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,7</t>
+          <t>12,66; 16,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,65</t>
+          <t>11,64; 16,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 11,48</t>
+          <t>9,2; 11,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,37</t>
+          <t>7,74; 16,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 16,82</t>
+          <t>13,82; 16,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 13,51</t>
+          <t>10,19; 13,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 15,49</t>
+          <t>10,93; 15,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,65</t>
+          <t>8,64; 12,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 16,07</t>
+          <t>13,65; 16,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,0</t>
+          <t>11,2; 14,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 12,82</t>
+          <t>10,37; 12,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 14,77</t>
+          <t>8,69; 14,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 14,26</t>
+          <t>13,01; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 12,22</t>
+          <t>10,98; 12,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 12,83</t>
+          <t>11,34; 12,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,15; 14,3</t>
+          <t>11,21; 14,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 14,38</t>
+          <t>13,14; 14,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 12,77</t>
+          <t>11,39; 12,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 11,91</t>
+          <t>10,74; 11,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,41</t>
+          <t>11,94; 18,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 14,13</t>
+          <t>13,27; 14,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 12,31</t>
+          <t>11,34; 12,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 12,19</t>
+          <t>11,23; 12,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,28</t>
+          <t>11,83; 15,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 16,1</t>
+          <t>13,67; 16,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 13,46</t>
+          <t>11,36; 13,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 13,06</t>
+          <t>11,19; 13,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 19,52</t>
+          <t>11,65; 19,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,38</t>
+          <t>13,51; 15,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 13,72</t>
+          <t>11,32; 13,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,97; 12,82</t>
+          <t>10,93; 12,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,05</t>
+          <t>10,64; 17,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 15,44</t>
+          <t>13,82; 15,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 13,26</t>
+          <t>11,57; 13,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 12,63</t>
+          <t>11,31; 12,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 16,86</t>
+          <t>11,86; 16,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,39; 14,52</t>
+          <t>13,41; 14,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,36; 12,47</t>
+          <t>11,36; 12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,4</t>
+          <t>11,28; 12,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 14,49</t>
+          <t>11,59; 14,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 14,55</t>
+          <t>13,59; 14,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 12,59</t>
+          <t>11,48; 12,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 12,07</t>
+          <t>11,11; 12,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>11,84; 16,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 14,38</t>
+          <t>13,62; 14,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 12,38</t>
+          <t>11,55; 12,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 12,08</t>
+          <t>11,39; 12,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 14,79</t>
+          <t>12,23; 14,67</t>
         </is>
       </c>
     </row>
